--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints9.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints9.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.545848482245807e-05</v>
+        <v>1.55256579542088e-05</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.543736189459568e-05</v>
+        <v>1.550837942557369e-05</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.539548654703731e-05</v>
+        <v>1.546656178279989e-05</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.533453564373065e-05</v>
+        <v>1.540231788299731e-05</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.525618604862324e-05</v>
+        <v>1.531776058327565e-05</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.516211462566267e-05</v>
+        <v>1.521500274074472e-05</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.505399823879638e-05</v>
+        <v>1.509615721251412e-05</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.493351375197223e-05</v>
+        <v>1.496333685569397e-05</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.480233802913769e-05</v>
+        <v>1.481865452739388e-05</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.466214793424015e-05</v>
+        <v>1.466422308472343e-05</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.451462033122756e-05</v>
+        <v>1.45021553847928e-05</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.436143208404733e-05</v>
+        <v>1.433456428471159e-05</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.420426005664685e-05</v>
+        <v>1.416356264158934e-05</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.40447811129741e-05</v>
+        <v>1.39912633125363e-05</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.388467211697648e-05</v>
+        <v>1.3819779154662e-05</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.372560993260157e-05</v>
+        <v>1.365122302507625e-05</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.356927142379675e-05</v>
+        <v>1.34877077808886e-05</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.341733345451002e-05</v>
+        <v>1.333134627920927e-05</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.327143528547283e-05</v>
+        <v>1.318419122765769e-05</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.313245998654474e-05</v>
+        <v>1.304708574328376e-05</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.300059029992776e-05</v>
+        <v>1.29197527104528e-05</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.287598255788293e-05</v>
+        <v>1.280187276862021e-05</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.275879309267148e-05</v>
+        <v>1.269312655724156e-05</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.26491782365545e-05</v>
+        <v>1.259319471577232e-05</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.254729432179351e-05</v>
+        <v>1.250175788366833e-05</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.24532976806496e-05</v>
+        <v>1.241849670038504e-05</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.236734464538387e-05</v>
+        <v>1.234309180537793e-05</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.228959154825779e-05</v>
+        <v>1.227522383810279e-05</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.222019472153248e-05</v>
+        <v>1.221457343801508e-05</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.215931049746915e-05</v>
+        <v>1.216082124457041e-05</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.210709520832899e-05</v>
+        <v>1.211364789722428e-05</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.206370518637334e-05</v>
+        <v>1.207273403543241e-05</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.202929676386338e-05</v>
+        <v>1.20377602986503e-05</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.20040262730603e-05</v>
+        <v>1.200840732633352e-05</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.198782468094459e-05</v>
+        <v>1.198424227128574e-05</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.19791146433939e-05</v>
+        <v>1.196407274971927e-05</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.197569977298494e-05</v>
+        <v>1.194639464770149e-05</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.197538179487362e-05</v>
+        <v>1.192970290085589e-05</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.197596243421586e-05</v>
+        <v>1.191249244480591e-05</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.197524341616756e-05</v>
+        <v>1.189325821517499e-05</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.197102646588463e-05</v>
+        <v>1.187049514758655e-05</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.196111330852299e-05</v>
+        <v>1.184269817766411e-05</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.194330566923855e-05</v>
+        <v>1.180836224103108e-05</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.191540527318718e-05</v>
+        <v>1.176598227331086e-05</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.187521384552485e-05</v>
+        <v>1.171405321012701e-05</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.182053311140746e-05</v>
+        <v>1.165106998710293e-05</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.174916479599092e-05</v>
+        <v>1.157552753986209e-05</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.1658910624431e-05</v>
+        <v>1.148592080402779e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.154757232188386e-05</v>
+        <v>1.138074471522372e-05</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.141314441679209e-05</v>
+        <v>1.125861236477833e-05</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.125610011321043e-05</v>
+        <v>1.111965585165499e-05</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.107863218463222e-05</v>
+        <v>1.096506107915258e-05</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.088296799464447e-05</v>
+        <v>1.079603514842891e-05</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.067133490683405e-05</v>
+        <v>1.06137851606417e-05</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.04459602847887e-05</v>
+        <v>1.041951821694943e-05</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.020907149209534e-05</v>
+        <v>1.021444141850983e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>9.962895892341136e-06</v>
+        <v>9.999761866480872e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>9.709660849112935e-06</v>
+        <v>9.776686662020244e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>9.45159372599858e-06</v>
+        <v>9.546422906286508e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>9.190921886584922e-06</v>
+        <v>9.310177700437351e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>8.92987269445879e-06</v>
+        <v>9.06915814563043e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>8.670633300232322e-06</v>
+        <v>8.824559048361068e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>8.414401875968019e-06</v>
+        <v>8.577272846098756e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>8.161350648187122e-06</v>
+        <v>8.327878305047715e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>7.91160423391486e-06</v>
+        <v>8.076939635346082e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>7.665287250177436e-06</v>
+        <v>7.825021047132965e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>7.422524314000074e-06</v>
+        <v>7.572686750546507e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>7.183440042408014e-06</v>
+        <v>7.320500955724833e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>6.948159052427435e-06</v>
+        <v>7.069027872807066e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>6.716805961083572e-06</v>
+        <v>6.818831711931337e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>6.489505385401683e-06</v>
+        <v>6.570476683235782e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>6.266381942407914e-06</v>
+        <v>6.324526996859513e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>6.047560249127516e-06</v>
+        <v>6.081546862940665e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>5.833164922586041e-06</v>
+        <v>5.842100491617697e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>5.623320579808765e-06</v>
+        <v>5.606752093028763e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>5.418151837821795e-06</v>
+        <v>5.376065877312945e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>5.217783313650402e-06</v>
+        <v>5.150606054608388e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>5.022339624319884e-06</v>
+        <v>4.930936835053273e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>4.831945386856307e-06</v>
+        <v>4.717622428786634e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>4.64672521828496e-06</v>
+        <v>4.51122704594664e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>4.466803735631397e-06</v>
+        <v>4.312314896671754e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>4.292305555920944e-06</v>
+        <v>4.121450191100189e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>4.123355296179609e-06</v>
+        <v>3.939197139370907e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>3.960077573432712e-06</v>
+        <v>3.766119951622116e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>3.802597004705603e-06</v>
+        <v>3.602782837992066e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>3.651038207024244e-06</v>
+        <v>3.449750008619648e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>3.505525797413978e-06</v>
+        <v>3.307585673643101e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>3.36633419851653e-06</v>
+        <v>3.176818322846138e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>3.234516543950961e-06</v>
+        <v>3.057790766509293e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>3.111378199166348e-06</v>
+        <v>2.950785671571416e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>2.998224659018966e-06</v>
+        <v>2.856085674114296e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>2.896361418365143e-06</v>
+        <v>2.773973410219788e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>2.807093972061601e-06</v>
+        <v>2.704731515970059e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.731727814964653e-06</v>
+        <v>2.648642627446946e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>2.671568441930683e-06</v>
+        <v>2.605989380732356e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.627921347816305e-06</v>
+        <v>2.577054411908354e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.602092027477882e-06</v>
+        <v>2.562120357056828e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.595385975771869e-06</v>
+        <v>2.561469852259731e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.609108687554751e-06</v>
+        <v>2.575385533599043e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.644565657682945e-06</v>
+        <v>2.604150037156682e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.548073876526699e-05</v>
+        <v>1.533278102823291e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>2.079007092045815e-05</v>
+        <v>2.074876771669265e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>2.000570787640074e-05</v>
+        <v>1.977859216981169e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.984456545195752e-05</v>
+        <v>1.975648771696833e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.985887368325478e-05</v>
+        <v>1.997092309844196e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.977507319124273e-05</v>
+        <v>1.990502805321064e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>2.144473405370411e-05</v>
+        <v>2.141652869078092e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.813909115316691e-05</v>
+        <v>2.794951563175106e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>3.860450695602127e-05</v>
+        <v>3.845028555645552e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>4.291538824663887e-05</v>
+        <v>4.306923682279329e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>4.493155171688716e-05</v>
+        <v>4.526628114872155e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>4.677590141457635e-05</v>
+        <v>4.690817875972019e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>4.589124673088447e-05</v>
+        <v>4.55041982817892e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>4.30757442941724e-05</v>
+        <v>4.263064622729208e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>4.093026966960193e-05</v>
+        <v>4.166836274770118e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>4.001819709688315e-05</v>
+        <v>4.156086852827251e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>4.014959677018979e-05</v>
+        <v>4.088706902804507e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>4.108353574014669e-05</v>
+        <v>4.151217600569556e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>4.032930881299849e-05</v>
+        <v>4.044912978786204e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>3.864953679869625e-05</v>
+        <v>3.836593711171866e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>3.750941555093634e-05</v>
+        <v>3.745824197352915e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>3.611695935172117e-05</v>
+        <v>3.616438698026892e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>3.471700027645436e-05</v>
+        <v>3.479732220626433e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>3.360800459072637e-05</v>
+        <v>3.38106812731454e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>3.269463060889348e-05</v>
+        <v>3.302983040614166e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>3.183887438777443e-05</v>
+        <v>3.221207396077369e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>3.090507614974407e-05</v>
+        <v>3.113268721658466e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.978149421245248e-05</v>
+        <v>2.975030719219542e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.837036992723518e-05</v>
+        <v>2.81307681284282e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>2.657766899017873e-05</v>
+        <v>2.634109093467912e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>2.444729050296217e-05</v>
+        <v>2.444202012332169e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>2.220230573486305e-05</v>
+        <v>2.24861473183507e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>2.007775950739089e-05</v>
+        <v>2.052551931006474e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.828328313400296e-05</v>
+        <v>1.862608322737574e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.686090884574996e-05</v>
+        <v>1.694545728973067e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.578465491673884e-05</v>
+        <v>1.567759424780959e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.50073255164086e-05</v>
+        <v>1.489606271754677e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>1.44383412452716e-05</v>
+        <v>1.442577204816705e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.398395031280785e-05</v>
+        <v>1.406616459417628e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>1.359368629149587e-05</v>
+        <v>1.372070680894181e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>1.325678070980803e-05</v>
+        <v>1.338826792896411e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.296393434185546e-05</v>
+        <v>1.307124810611501e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>1.270584796174964e-05</v>
+        <v>1.27720474922668e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.247322234360168e-05</v>
+        <v>1.249306623929129e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.225709824496395e-05</v>
+        <v>1.223652581320196e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.205318700242955e-05</v>
+        <v>1.200219295332653e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.186059355653239e-05</v>
+        <v>1.178805081497047e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.167849924119238e-05</v>
+        <v>1.159204240319583e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.150608539032944e-05</v>
+        <v>1.141211072306468e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.134253333786372e-05</v>
+        <v>1.124619877963935e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.118702441771515e-05</v>
+        <v>1.109224957798193e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.103873996380374e-05</v>
+        <v>1.094820612315455e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.08968613100494e-05</v>
+        <v>1.081201142021932e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.076067379128745e-05</v>
+        <v>1.068187471847256e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.062997796293543e-05</v>
+        <v>1.055732424127027e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.050473363558561e-05</v>
+        <v>1.043829590811166e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.038490066645334e-05</v>
+        <v>1.032472575785167e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.027043891275381e-05</v>
+        <v>1.021654982934508e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.01613082317023e-05</v>
+        <v>1.011370416144673e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.005746848051401e-05</v>
+        <v>1.001612479301142e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>9.958879516404276e-06</v>
+        <v>9.923747762894057e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>9.865501196588317e-06</v>
+        <v>9.836509109949443e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>9.777293378281348e-06</v>
+        <v>9.754344873032372e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>9.694215918698701e-06</v>
+        <v>9.677191090997757e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>9.616228675055592e-06</v>
+        <v>9.604983802700395e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>9.543291504567272e-06</v>
+        <v>9.537659046995119e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>9.475364264448971e-06</v>
+        <v>9.475152862736739e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>9.412406811916001e-06</v>
+        <v>9.417401288780147e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>9.35437900418359e-06</v>
+        <v>9.364340363980151e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>9.301240698466966e-06</v>
+        <v>9.315906127191563e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>9.252951751981433e-06</v>
+        <v>9.272034617269265e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>9.20947202194222e-06</v>
+        <v>9.232661873068066e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>9.170761365564582e-06</v>
+        <v>9.197723933442805e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>9.136779640063758e-06</v>
+        <v>9.167156837248299e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>9.107486702655038e-06</v>
+        <v>9.140896623339418e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>9.082842410553663e-06</v>
+        <v>9.118879330570987e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>9.062806620974872e-06</v>
+        <v>9.101040997797823e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>9.047339191133937e-06</v>
+        <v>9.087317663874778e-06</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>9.036399978246109e-06</v>
+        <v>9.077645367656688e-06</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>9.029948839526639e-06</v>
+        <v>9.071960147998382e-06</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>9.027945632190786e-06</v>
+        <v>9.070198043754698e-06</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>9.030350213453801e-06</v>
+        <v>9.07229509378047e-06</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>9.037122440530942e-06</v>
+        <v>9.078187336930536e-06</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>9.048222170637462e-06</v>
+        <v>9.08781081205973e-06</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>9.063609260988622e-06</v>
+        <v>9.101101558022894e-06</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>9.083243568799665e-06</v>
+        <v>9.117995613674851e-06</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>9.107084951285853e-06</v>
+        <v>9.138429017870443e-06</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>9.135093242950612e-06</v>
+        <v>9.162337793678274e-06</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>9.16714712805751e-06</v>
+        <v>9.189601559336332e-06</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>9.202861874343141e-06</v>
+        <v>9.219916841022657e-06</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>9.241799394743829e-06</v>
+        <v>9.25294307976956e-06</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>9.28352160219585e-06</v>
+        <v>9.288339716609307e-06</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>9.327590409635534e-06</v>
+        <v>9.325766192574206e-06</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>9.373567729999189e-06</v>
+        <v>9.364881948696558e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>9.421015476223147e-06</v>
+        <v>9.405346426008679e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>9.469495561243676e-06</v>
+        <v>9.446819065542824e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>9.51856989799711e-06</v>
+        <v>9.488959308331316e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>9.567800399419753e-06</v>
+        <v>9.531426595406444e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>9.616748978447943e-06</v>
+        <v>9.573880367800525e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>9.664977548017944e-06</v>
+        <v>9.615980066545823e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>9.712048021066086e-06</v>
+        <v>9.657385132674646e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>9.757522310528704e-06</v>
+        <v>9.697755007219315e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>9.800962329342061e-06</v>
+        <v>9.736749131212085e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>9.841929990442494e-06</v>
+        <v>9.774026945685276e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>9.879987206766311e-06</v>
+        <v>9.80924789167118e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>9.914695891249837e-06</v>
+        <v>9.842071410202114e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>9.945617956829351e-06</v>
+        <v>9.87215694231034e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>9.972315316441181e-06</v>
+        <v>9.899163929028175e-06</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>9.994349883021643e-06</v>
+        <v>9.922751811387919e-06</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.001128356950703e-05</v>
+        <v>9.94258003042185e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.002267828883366e-05</v>
+        <v>9.958308027162279e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.002809595393785e-05</v>
+        <v>9.969595242641498e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.002709847775591e-05</v>
+        <v>9.976101117891811e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.001924777322413e-05</v>
+        <v>9.977485093945505e-06</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.000417379213822e-05</v>
+        <v>9.973426403926685e-06</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>9.981870009006577e-06</v>
+        <v>9.963710027513229e-06</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>9.952450808271866e-06</v>
+        <v>9.948156116350052e-06</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>9.916030655802596e-06</v>
+        <v>9.926584845768355e-06</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>9.872724017467273e-06</v>
+        <v>9.898816391099326e-06</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>9.822645359134383e-06</v>
+        <v>9.86467092767415e-06</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>9.765909146672485e-06</v>
+        <v>9.823968630824056e-06</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>9.70262984595006e-06</v>
+        <v>9.776529675880223e-06</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>9.632921922835594e-06</v>
+        <v>9.722174238173822e-06</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>9.556899843197649e-06</v>
+        <v>9.6607224930361e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>9.474678072904714e-06</v>
+        <v>9.591994615798232e-06</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>9.386371077825295e-06</v>
+        <v>9.515810781791412e-06</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>9.292093323827858e-06</v>
+        <v>9.431991166346801e-06</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>9.191959276780994e-06</v>
+        <v>9.340355944795664e-06</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>9.086083402553178e-06</v>
+        <v>9.240725292469168e-06</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>8.974580167012867e-06</v>
+        <v>9.13291938469846e-06</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>8.857564036028666e-06</v>
+        <v>9.016758396814829e-06</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>8.73511266576585e-06</v>
+        <v>8.892072937845936e-06</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>8.60691269767617e-06</v>
+        <v>8.758804449792766e-06</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>8.472414988309649e-06</v>
+        <v>8.616961207797821e-06</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>8.331067142783304e-06</v>
+        <v>8.466552408621308e-06</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>8.182316766213958e-06</v>
+        <v>8.307587249023239e-06</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>8.025611463718504e-06</v>
+        <v>8.140074925763695e-06</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>7.860398840413755e-06</v>
+        <v>7.964024635602672e-06</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>7.686126501416749e-06</v>
+        <v>7.779445575300409e-06</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>7.502242051844302e-06</v>
+        <v>7.586346941616905e-06</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>7.308193096813216e-06</v>
+        <v>7.384737931312146e-06</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>7.103427241440552e-06</v>
+        <v>7.174627741146393e-06</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>6.887392090843119e-06</v>
+        <v>6.956025567879636e-06</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>6.659535250137697e-06</v>
+        <v>6.728940608271847e-06</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>6.419625862310498e-06</v>
+        <v>6.493654303898287e-06</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>6.171371793575032e-06</v>
+        <v>6.253782997380861e-06</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>5.921120761084689e-06</v>
+        <v>6.01517818246901e-06</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>5.675269136149254e-06</v>
+        <v>5.783732548189858e-06</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>5.440213290078842e-06</v>
+        <v>5.565338783570837e-06</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>5.222349594183229e-06</v>
+        <v>5.365889577639059e-06</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>5.028074419772305e-06</v>
+        <v>5.191277619421748e-06</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>4.863784138155894e-06</v>
+        <v>5.047395597946066e-06</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>4.735875120644038e-06</v>
+        <v>4.940136202239368e-06</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>4.650743738546546e-06</v>
+        <v>4.875392121328803e-06</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>4.614786363173303e-06</v>
+        <v>4.859056044241595e-06</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>4.634399365834233e-06</v>
+        <v>4.897020660004984e-06</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>4.715979117839201e-06</v>
+        <v>4.995178657646172e-06</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>4.865367747565373e-06</v>
+        <v>5.158865077433056e-06</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>5.080522413138134e-06</v>
+        <v>5.385481536185816e-06</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>5.353532606495352e-06</v>
+        <v>5.666525927688377e-06</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>5.676348113813923e-06</v>
+        <v>5.993355581470858e-06</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>6.040918721270833e-06</v>
+        <v>6.357327827063459e-06</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>6.439194215042571e-06</v>
+        <v>6.749799993995886e-06</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>6.863124381306102e-06</v>
+        <v>7.162129411798321e-06</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>7.304659006238248e-06</v>
+        <v>7.5856734100008e-06</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>7.755747876016026e-06</v>
+        <v>8.011789318133544e-06</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>8.20834077681584e-06</v>
+        <v>8.431834465726195e-06</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>8.654387494814714e-06</v>
+        <v>8.837166182308981e-06</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>9.085837816189645e-06</v>
+        <v>9.219141797412094e-06</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>9.494641527117061e-06</v>
+        <v>9.569118640565219e-06</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>9.872748413773978e-06</v>
+        <v>9.87845404129857e-06</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.021260337744017e-05</v>
+        <v>1.014040211880798e-05</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.05135796256405e-05</v>
+        <v>1.03747593853786e-05</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.078014844498948e-05</v>
+        <v>1.062085313245285e-05</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.101697341810423e-05</v>
+        <v>1.091845657448883e-05</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.126846486211289e-05</v>
+        <v>1.13035599281858e-05</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>1.168239761484435e-05</v>
+        <v>1.180148142251155e-05</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>1.22983609309521e-05</v>
+        <v>1.239022881713107e-05</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>1.295148447577469e-05</v>
+        <v>1.297333213668807e-05</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>1.347862460257472e-05</v>
+        <v>1.345731555062876e-05</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>1.383469429957936e-05</v>
+        <v>1.380529342957248e-05</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>1.401667999540562e-05</v>
+        <v>1.400054795983546e-05</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>1.402161971387419e-05</v>
+        <v>1.402638605978685e-05</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>1.384873648570949e-05</v>
+        <v>1.386873096185655e-05</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>1.354033891248057e-05</v>
+        <v>1.356509630060386e-05</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.317817855439803e-05</v>
+        <v>1.32002244708806e-05</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.284546167372421e-05</v>
+        <v>1.286059971898351e-05</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.262539453272195e-05</v>
+        <v>1.263270629120977e-05</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.260118339365358e-05</v>
+        <v>1.26030284338561e-05</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.285603451878157e-05</v>
+        <v>1.285805039321936e-05</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.34731541703688e-05</v>
+        <v>1.348425641559679e-05</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.453574861067723e-05</v>
+        <v>1.456813074728472e-05</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.607431680910125e-05</v>
+        <v>1.614056515595414e-05</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.750734437646533e-05</v>
+        <v>1.758693657245474e-05</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.805498277405405e-05</v>
+        <v>1.808221798652725e-05</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.790422025441542e-05</v>
+        <v>1.781512479414083e-05</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.753728124146456e-05</v>
+        <v>1.728468049784307e-05</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.720915818351755e-05</v>
+        <v>1.677905200287093e-05</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.688524546127975e-05</v>
+        <v>1.631766407438902e-05</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>1.651214615795347e-05</v>
+        <v>1.590250346926538e-05</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>1.603647066873889e-05</v>
+        <v>1.553555826511973e-05</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>1.544343388592109e-05</v>
+        <v>1.522578959406088e-05</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>1.484696862902071e-05</v>
+        <v>1.500540865459005e-05</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>1.438780234715448e-05</v>
+        <v>1.491146650652751e-05</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>1.420666248943913e-05</v>
+        <v>1.498101420969366e-05</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>1.4427943177349e-05</v>
+        <v>1.524340775192753e-05</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>1.495638683827626e-05</v>
+        <v>1.562451927296722e-05</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>1.553947134297169e-05</v>
+        <v>1.597612933060703e-05</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>1.592125694141167e-05</v>
+        <v>1.614840834914976e-05</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>1.590035061797721e-05</v>
+        <v>1.60236661498722e-05</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>1.550954635167018e-05</v>
+        <v>1.562219751077505e-05</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.484447391686617e-05</v>
+        <v>1.500132059162048e-05</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.400076385633073e-05</v>
+        <v>1.42183540049123e-05</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.307404668542512e-05</v>
+        <v>1.333061642864077e-05</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>1.215697590530738e-05</v>
+        <v>1.240254050484926e-05</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.133103725866386e-05</v>
+        <v>1.152524569227943e-05</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.067509825200129e-05</v>
+        <v>1.079610806680119e-05</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.026802639182683e-05</v>
+        <v>1.031250370428489e-05</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.01830061680832e-05</v>
+        <v>1.016535456887798e-05</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.040400148682347e-05</v>
+        <v>1.034425622353361e-05</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.084408824617987e-05</v>
+        <v>1.075829784560062e-05</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.141438675740402e-05</v>
+        <v>1.131434768344265e-05</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.202601733174673e-05</v>
+        <v>1.191927398542254e-05</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.259010028045959e-05</v>
+        <v>1.247994499990389e-05</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.301775591479395e-05</v>
+        <v>1.290322897525008e-05</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>1.322010454600121e-05</v>
+        <v>1.30959941598245e-05</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.310864655163633e-05</v>
+        <v>1.296551064402677e-05</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.264438782753714e-05</v>
+        <v>1.247139043355358e-05</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.188643382503579e-05</v>
+        <v>1.167696566071513e-05</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.090543836773245e-05</v>
+        <v>1.065777848902697e-05</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>9.772055279226265e-06</v>
+        <v>9.489371082003613e-06</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>8.556938383116698e-06</v>
+        <v>8.247285603159884e-06</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>7.330741503002655e-06</v>
+        <v>7.007064216010048e-06</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>6.16411846248471e-06</v>
+        <v>5.844249084070056e-06</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>5.127723085161758e-06</v>
+        <v>4.834382370854162e-06</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>4.292061040671997e-06</v>
+        <v>4.052839624018092e-06</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>3.697002060082796e-06</v>
+        <v>3.540542818846323e-06</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>3.31443867412348e-06</v>
+        <v>3.261965892773737e-06</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>3.107123587565919e-06</v>
+        <v>3.17130401686551e-06</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>3.037809505181971e-06</v>
+        <v>3.222752362186868e-06</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>3.069249131743558e-06</v>
+        <v>3.370506099802928e-06</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>3.164195172022483e-06</v>
+        <v>3.568760400778857e-06</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>3.285400330790673e-06</v>
+        <v>3.771710436179922e-06</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>3.395617312819872e-06</v>
+        <v>3.933551377071102e-06</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>3.459836584562235e-06</v>
+        <v>4.011300527591906e-06</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>3.477082926082102e-06</v>
+        <v>4.004897261265877e-06</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>3.472865377327886e-06</v>
+        <v>3.947681338452074e-06</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>3.473390887910041e-06</v>
+        <v>3.873872682020901e-06</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>3.504866407439013e-06</v>
+        <v>3.81769121484268e-06</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>3.593498885525302e-06</v>
+        <v>3.813356859787768e-06</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>3.765495271779283e-06</v>
+        <v>3.895089539726521e-06</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>4.047062515811424e-06</v>
+        <v>4.097109177529262e-06</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>4.464407567232169e-06</v>
+        <v>4.453635696066331e-06</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>5.033933319688246e-06</v>
+        <v>4.987068789243907e-06</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>5.731610108304375e-06</v>
+        <v>5.671060765080022e-06</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>6.522986672507242e-06</v>
+        <v>6.466699167807207e-06</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>7.373611741054669e-06</v>
+        <v>7.335071528795177e-06</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>8.249034042704872e-06</v>
+        <v>8.237265379414051e-06</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>9.114802306214867e-06</v>
+        <v>9.134368251032711e-06</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>9.936465260342874e-06</v>
+        <v>9.987467675021281e-06</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.067957163384702e-05</v>
+        <v>1.075765118274979e-05</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.131000030236747e-05</v>
+        <v>1.140634655975556e-05</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.185554994819907e-05</v>
+        <v>1.195879704281614e-05</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>1.24784026513251e-05</v>
+        <v>1.257874334836872e-05</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>1.335835347150862e-05</v>
+        <v>1.344807838538878e-05</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>1.467519746851342e-05</v>
+        <v>1.474869506285254e-05</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.660872970210302e-05</v>
+        <v>1.666248628973599e-05</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>1.933874523204239e-05</v>
+        <v>1.937134497501651e-05</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.304503911809269e-05</v>
+        <v>2.305716402766774e-05</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>2.790740642001848e-05</v>
+        <v>2.790183635666667e-05</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>3.410175523037722e-05</v>
+        <v>3.408335473869574e-05</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>4.158625130570483e-05</v>
+        <v>4.156123212507148e-05</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>4.999016974535286e-05</v>
+        <v>4.99649768632331e-05</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>5.891547689554365e-05</v>
+        <v>5.889669605323885e-05</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>6.79641391025005e-05</v>
+        <v>6.795849679514791e-05</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>7.673812271243437e-05</v>
+        <v>7.675248618900712e-05</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>8.483939407156854e-05</v>
+        <v>8.488077133487568e-05</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>9.186991952612518e-05</v>
+        <v>9.194545933281163e-05</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>9.743166542231699e-05</v>
+        <v>9.754865728286356e-05</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>0.0001012042919186793</v>
+        <v>0.0001013698714175239</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>0.0001032740774217672</v>
+        <v>0.0001034936839810242</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>0.0001038598765299967</v>
+        <v>0.0001041367505697206</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>0.0001031806168028807</v>
+        <v>0.0001035157994643359</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>0.0001014552257999332</v>
+        <v>0.0001018475589455943</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>9.890263108066755e-05</v>
+        <v>9.93487572942194e-05</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>9.574176020459553e-05</v>
+        <v>9.623612279093307e-05</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>9.219154073123337e-05</v>
+        <v>9.27263837164618e-05</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>8.847089728813963e-05</v>
+        <v>8.903626546517665e-05</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>8.475945642202135e-05</v>
+        <v>8.53438065773573e-05</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>8.109902928604469e-05</v>
+        <v>8.169137372570194e-05</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>7.750123305588022e-05</v>
+        <v>7.809160923056105e-05</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>7.397768490720006e-05</v>
+        <v>7.455715541228672e-05</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>7.054000201567493e-05</v>
+        <v>7.110065459122956e-05</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>6.719980155698007e-05</v>
+        <v>6.773474908774479e-05</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>6.396870070678613e-05</v>
+        <v>6.447208122218297e-05</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>6.085831664076528e-05</v>
+        <v>6.13252933148962e-05</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>5.788026653458842e-05</v>
+        <v>5.830702768623528e-05</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>5.504616756393042e-05</v>
+        <v>5.542992665655506e-05</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>5.236763690446204e-05</v>
+        <v>5.270663254620623e-05</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>4.985629173185444e-05</v>
+        <v>5.014978767553985e-05</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>4.752374922178205e-05</v>
+        <v>4.777203436491031e-05</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>4.53816265499159e-05</v>
+        <v>4.558601493466853e-05</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>4.344154089192734e-05</v>
+        <v>4.360437170516583e-05</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>4.171510942349031e-05</v>
+        <v>4.183974699675608e-05</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>4.021394932027606e-05</v>
+        <v>4.030478312979047e-05</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>3.894707997459009e-05</v>
+        <v>3.900939320161825e-05</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>3.790616697535393e-05</v>
+        <v>3.794525845854621e-05</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>3.707576555055086e-05</v>
+        <v>3.709659002412956e-05</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>3.644040944683563e-05</v>
+        <v>3.644757645370755e-05</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>3.59846324108635e-05</v>
+        <v>3.598240630262e-05</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>3.56929681892896e-05</v>
+        <v>3.568526812620661e-05</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>3.554995052876948e-05</v>
+        <v>3.554035047980746e-05</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>3.554011317595817e-05</v>
+        <v>3.553184191876215e-05</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>3.564798987751105e-05</v>
+        <v>3.56439309984106e-05</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>3.585811438008322e-05</v>
+        <v>3.586080627409247e-05</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>3.615502043032998e-05</v>
+        <v>3.61666563011476e-05</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>3.652324177490677e-05</v>
+        <v>3.654566963491599e-05</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>3.694731216046849e-05</v>
+        <v>3.698203483073708e-05</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>3.741176533367054e-05</v>
+        <v>3.745994044395082e-05</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>3.79011350411684e-05</v>
+        <v>3.796357502989728e-05</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>3.839995502961664e-05</v>
+        <v>3.847712714391553e-05</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>3.889275904567142e-05</v>
+        <v>3.898478534134631e-05</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>3.936408083598751e-05</v>
+        <v>3.947073817752894e-05</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>3.979845414721979e-05</v>
+        <v>3.991917420780283e-05</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>4.018041272602425e-05</v>
+        <v>4.031428198750857e-05</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>4.049449031905549e-05</v>
+        <v>4.064025007198525e-05</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>4.072522067296931e-05</v>
+        <v>4.088126701657326e-05</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>4.085713753442063e-05</v>
+        <v>4.102152137661206e-05</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>4.08747746500647e-05</v>
+        <v>4.104520170744145e-05</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>4.076266576655681e-05</v>
+        <v>4.093649656440129e-05</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>4.050534463055214e-05</v>
+        <v>4.067959450283127e-05</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>4.008885283351281e-05</v>
+        <v>4.026022472431337e-05</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>3.95168124268886e-05</v>
+        <v>3.968207933317136e-05</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>3.880421232246745e-05</v>
+        <v>3.896046456708365e-05</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>3.796623198926879e-05</v>
+        <v>3.811088136631431e-05</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>3.701805089630973e-05</v>
+        <v>3.714883067112502e-05</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>3.597484851260963e-05</v>
+        <v>3.608981342177974e-05</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>3.485180430718815e-05</v>
+        <v>3.49493305585428e-05</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>3.366409774906189e-05</v>
+        <v>3.374288302167536e-05</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>3.242690830725048e-05</v>
+        <v>3.248597175144168e-05</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>3.115541545077369e-05</v>
+        <v>3.119409768810616e-05</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>2.986479864864788e-05</v>
+        <v>2.988276177192973e-05</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>2.857023736989397e-05</v>
+        <v>2.856746494317795e-05</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>2.728691108352824e-05</v>
+        <v>2.72637081421117e-05</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>2.602999925857052e-05</v>
+        <v>2.598699230899541e-05</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>2.48146813640405e-05</v>
+        <v>2.475281838409341e-05</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>2.365613686895461e-05</v>
+        <v>2.357668730766671e-05</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>2.256954524233262e-05</v>
+        <v>2.247410001997971e-05</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>2.156979366492046e-05</v>
+        <v>2.146025866148952e-05</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>2.066332421320974e-05</v>
+        <v>2.054173213023628e-05</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.984704914048265e-05</v>
+        <v>1.971534719775932e-05</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.911737047442039e-05</v>
+        <v>1.897740904330404e-05</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.847069024270223e-05</v>
+        <v>1.832422284611385e-05</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.790341047300991e-05</v>
+        <v>1.775209378543467e-05</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.7411933193023e-05</v>
+        <v>1.725732704051024e-05</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.699266043042262e-05</v>
+        <v>1.683622779058586e-05</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.664199421288963e-05</v>
+        <v>1.648510121490655e-05</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.635633656810399e-05</v>
+        <v>1.620025249271644e-05</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.61320895237466e-05</v>
+        <v>1.597798680326062e-05</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.596565510749819e-05</v>
+        <v>1.581460932578397e-05</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.585343534703902e-05</v>
+        <v>1.570642523953094e-05</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>1.579183227004986e-05</v>
+        <v>1.564973972374645e-05</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>1.577724790421127e-05</v>
+        <v>1.564085795767525e-05</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>1.58060842772038e-05</v>
+        <v>1.567608512056206e-05</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>1.587474341670807e-05</v>
+        <v>1.575172639165166e-05</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.597962735040455e-05</v>
+        <v>1.58640869501887e-05</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.611713810597401e-05</v>
+        <v>1.600947197541811e-05</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.628367771109677e-05</v>
+        <v>1.61841866465844e-05</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.647564819345373e-05</v>
+        <v>1.638453614293263e-05</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.668945158072532e-05</v>
+        <v>1.66068256437074e-05</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.692148990059191e-05</v>
+        <v>1.684736032815325e-05</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.71681651807345e-05</v>
+        <v>1.710244537551536e-05</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.742587944883345e-05</v>
+        <v>1.736838596503826e-05</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.76910347325691e-05</v>
+        <v>1.764148727596646e-05</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.796003305962253e-05</v>
+        <v>1.79180544875452e-05</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.822927645767406e-05</v>
+        <v>1.819439277901899e-05</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.849516695440403e-05</v>
+        <v>1.846680732963233e-05</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.875410657749351e-05</v>
+        <v>1.873160331863047e-05</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.900249735462283e-05</v>
+        <v>1.89850859252579e-05</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.923674131347237e-05</v>
+        <v>1.922356032875917e-05</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.945324048172313e-05</v>
+        <v>1.944333170837947e-05</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.96483968870553e-05</v>
+        <v>1.964070524336314e-05</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.981861255714981e-05</v>
+        <v>1.98119861129553e-05</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.996100973713401e-05</v>
+        <v>1.995421061780164e-05</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.008371404581316e-05</v>
+        <v>2.007558502119565e-05</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.020343902978739e-05</v>
+        <v>2.019303353380749e-05</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>2.033712604251484e-05</v>
+        <v>2.032371162211751e-05</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>2.05017164374536e-05</v>
+        <v>2.048477475260607e-05</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>2.071415156806222e-05</v>
+        <v>2.069337839175392e-05</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>2.099137278779883e-05</v>
+        <v>2.096667800604147e-05</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>2.135032145012134e-05</v>
+        <v>2.132182906194882e-05</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>2.180793890848863e-05</v>
+        <v>2.177598702595712e-05</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>2.238116651635813e-05</v>
+        <v>2.234630736454601e-05</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>2.30869456271891e-05</v>
+        <v>2.3049945544197e-05</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>2.394221759443935e-05</v>
+        <v>2.390405703139012e-05</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>2.496392377156614e-05</v>
+        <v>2.49257972926049e-05</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>2.616900551202957e-05</v>
+        <v>2.613232179432364e-05</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>2.757440416928705e-05</v>
+        <v>2.7540786003026e-05</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>2.919706109679529e-05</v>
+        <v>2.916834538519092e-05</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>3.105391764801545e-05</v>
+        <v>3.10321554073018e-05</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>3.316191517640444e-05</v>
+        <v>3.31493715358378e-05</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>3.553799503541826e-05</v>
+        <v>3.553714923727711e-05</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>3.819909857851944e-05</v>
+        <v>3.821264397810455e-05</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>4.116216715916423e-05</v>
+        <v>4.119301122479858e-05</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>4.444414213080778e-05</v>
+        <v>4.449540644383657e-05</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>4.805342844548143e-05</v>
+        <v>4.812838659041715e-05</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>5.1906629805864e-05</v>
+        <v>5.200803943527007e-05</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>5.586447241109311e-05</v>
+        <v>5.599416868742598e-05</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>5.978689070016714e-05</v>
+        <v>5.994578053502243e-05</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>6.353381911207052e-05</v>
+        <v>6.372188116618292e-05</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>6.696519208580128e-05</v>
+        <v>6.718147676904466e-05</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>6.994094406034716e-05</v>
+        <v>7.018357353173446e-05</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>7.232100947469748e-05</v>
+        <v>7.258717764238077e-05</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>7.396532276784782e-05</v>
+        <v>7.425129528911836e-05</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>7.473381837878698e-05</v>
+        <v>7.503493266007504e-05</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>7.448643074650683e-05</v>
+        <v>7.479709594338188e-05</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>7.308309430999824e-05</v>
+        <v>7.339679132716886e-05</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>7.038374350825215e-05</v>
+        <v>7.069302499956601e-05</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>6.629738258875203e-05</v>
+        <v>6.659408928203234e-05</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>6.107031130520574e-05</v>
+        <v>6.134705897351592e-05</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>5.509062296024546e-05</v>
+        <v>5.534142752044201e-05</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>4.874690154156102e-05</v>
+        <v>4.896718121748434e-05</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>4.242773103685847e-05</v>
+        <v>4.261430635933296e-05</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>3.652169543384372e-05</v>
+        <v>3.667278924067777e-05</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>3.141737872020673e-05</v>
+        <v>3.153261615619268e-05</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>2.750336488365397e-05</v>
+        <v>2.758377340056815e-05</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>2.516823791188762e-05</v>
+        <v>2.521624726849036e-05</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>2.471117052394933e-05</v>
+        <v>2.473037330091965e-05</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>2.602301871522164e-05</v>
+        <v>2.601707665259469e-05</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>2.887814646411803e-05</v>
+        <v>2.885047844134953e-05</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>3.305090895851242e-05</v>
+        <v>3.30046909709334e-05</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>3.831566138626635e-05</v>
+        <v>3.825382654508324e-05</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>4.444675893525808e-05</v>
+        <v>4.437199746755269e-05</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>5.121855679335195e-05</v>
+        <v>5.11333160420814e-05</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>5.840541014840998e-05</v>
+        <v>5.83118945724068e-05</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>6.57816741883139e-05</v>
+        <v>6.568184536228597e-05</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>7.312170410092598e-05</v>
+        <v>7.30172807154566e-05</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>8.01998550741087e-05</v>
+        <v>8.009231293565644e-05</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>8.679048229574355e-05</v>
+        <v>8.668105432664241e-05</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>9.266794095369259e-05</v>
+        <v>9.255761719215192e-05</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>9.760658623582058e-05</v>
+        <v>9.74961138359251e-05</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>0.0001013807733300051</v>
+        <v>0.0001012706565617149</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>0.0001037648574241099</v>
+        <v>0.0001036553576732604</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>0.0001045331937060037</v>
+        <v>0.0001044243294743057</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>0.0001035068409131767</v>
+        <v>0.000103398426303808</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>0.0001008199617891072</v>
+        <v>0.0001007118645169274</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>9.673541999436054e-05</v>
+        <v>9.662766744061103e-05</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>9.151647484216606e-05</v>
+        <v>9.140925438050337e-05</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>8.542638564576972e-05</v>
+        <v>8.532004464226558e-05</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>7.87284117183973e-05</v>
+        <v>7.862345753153869e-05</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>7.168581237329093e-05</v>
+        <v>7.158291235398006e-05</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>6.456184692369396e-05</v>
+        <v>6.446182841524824e-05</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>5.761977468283039e-05</v>
+        <v>5.752362502098244e-05</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>5.112285496394359e-05</v>
+        <v>5.103172147684126e-05</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>4.533417992201239e-05</v>
+        <v>4.52493697016045e-05</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>4.042425387018242e-05</v>
+        <v>4.034710714432732e-05</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>3.631740165280272e-05</v>
+        <v>3.624895509757307e-05</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>3.289748526179119e-05</v>
+        <v>3.28384166623972e-05</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>3.004836668905689e-05</v>
+        <v>2.999899493984633e-05</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>2.765390792652027e-05</v>
+        <v>2.761419303097846e-05</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>2.55979709660922e-05</v>
+        <v>2.556751403684202e-05</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>2.376478787622808e-05</v>
+        <v>2.37428324543263e-05</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>2.207535661647777e-05</v>
+        <v>2.20609197391853e-05</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>2.051813085044617e-05</v>
+        <v>2.051024352598473e-05</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.90887903563215e-05</v>
+        <v>1.90865233244549e-05</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.778301491229158e-05</v>
+        <v>1.778547864432569e-05</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.65964842965407e-05</v>
+        <v>1.66028289953235e-05</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.552487828725677e-05</v>
+        <v>1.553429388717832e-05</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.456387666262727e-05</v>
+        <v>1.457559282961969e-05</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.370915920083715e-05</v>
+        <v>1.372244533237466e-05</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.295640568007397e-05</v>
+        <v>1.297057090517287e-05</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.230129587852496e-05</v>
+        <v>1.231568905774362e-05</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.173950957437561e-05</v>
+        <v>1.17535192998145e-05</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.126672654581321e-05</v>
+        <v>1.127978114111486e-05</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.087862657102474e-05</v>
+        <v>1.089019409137379e-05</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.057088942819618e-05</v>
+        <v>1.058047766031933e-05</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.033919489551476e-05</v>
+        <v>1.034635135768079e-05</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.017922275116672e-05</v>
+        <v>1.018353469318651e-05</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.008665277333897e-05</v>
+        <v>1.008774717656547e-05</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.005716474021819e-05</v>
+        <v>1.005470831754644e-05</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.008643842999099e-05</v>
+        <v>1.008013762585809e-05</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>1.017015362084408e-05</v>
+        <v>1.015975461122924e-05</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>1.0303990090964e-05</v>
+        <v>1.02892787833885e-05</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.048362761853764e-05</v>
+        <v>1.046442965206485e-05</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>1.07047459817516e-05</v>
+        <v>1.068092672698695e-05</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>1.096302495879227e-05</v>
+        <v>1.09344895178833e-05</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>1.12541443278468e-05</v>
+        <v>1.122083753448311e-05</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>1.157378386710133e-05</v>
+        <v>1.153569028651461e-05</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>1.191762335474312e-05</v>
+        <v>1.187476728370714e-05</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>1.228134256895855e-05</v>
+        <v>1.223378803578916e-05</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>1.266062128793394e-05</v>
+        <v>1.260847205248908e-05</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>1.305113928985664e-05</v>
+        <v>1.299453884353634e-05</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.344857635291299e-05</v>
+        <v>1.338770791865933e-05</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.38486122552893e-05</v>
+        <v>1.378369878758647e-05</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.424692677517294e-05</v>
+        <v>1.41782309600472e-05</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.463919969075023e-05</v>
+        <v>1.456702394576994e-05</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.50211107802075e-05</v>
+        <v>1.494579725448308e-05</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.538833982173211e-05</v>
+        <v>1.531027039591605e-05</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.573656659351007e-05</v>
+        <v>1.565616287979698e-05</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.606147087372866e-05</v>
+        <v>1.597919421585522e-05</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.635873244057425e-05</v>
+        <v>1.62750839138192e-05</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.662403235788666e-05</v>
+        <v>1.653955275372847e-05</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.68543966067763e-05</v>
+        <v>1.676965038328837e-05</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.705074235418901e-05</v>
+        <v>1.696627120047364e-05</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.721468641034849e-05</v>
+        <v>1.713100089732588e-05</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.734784558547892e-05</v>
+        <v>1.726542516588713e-05</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.7451836689804e-05</v>
+        <v>1.737112969819899e-05</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.752827653354751e-05</v>
+        <v>1.744970018630312e-05</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.757878192693346e-05</v>
+        <v>1.750272232224142e-05</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.760496968018565e-05</v>
+        <v>1.753178179805557e-05</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.760845660352792e-05</v>
+        <v>1.753846430578729e-05</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.759085950718415e-05</v>
+        <v>1.752435553747836e-05</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.755379520137818e-05</v>
+        <v>1.749104118517049e-05</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.749888049633394e-05</v>
+        <v>1.74401069409055e-05</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.742773220227518e-05</v>
+        <v>1.737313849672503e-05</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.73419671294259e-05</v>
+        <v>1.729172154467095e-05</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.724320208800979e-05</v>
+        <v>1.719744177678486e-05</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.713305388825078e-05</v>
+        <v>1.709188488510855e-05</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.701313934037286e-05</v>
+        <v>1.697663656168391e-05</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.688507525459966e-05</v>
+        <v>1.685328249855245e-05</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.675047844115516e-05</v>
+        <v>1.672340838775603e-05</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>1.661096571026332e-05</v>
+        <v>1.65885999213365e-05</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>1.646815387214778e-05</v>
+        <v>1.645044279133539e-05</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.63236597370325e-05</v>
+        <v>1.631052268979454e-05</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.61791001151415e-05</v>
+        <v>1.617042530875584e-05</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.603609181669835e-05</v>
+        <v>1.603173634026077e-05</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.589625165192718e-05</v>
+        <v>1.589604147635133e-05</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.57611964310516e-05</v>
+        <v>1.576492640906902e-05</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.563254296429559e-05</v>
+        <v>1.56399768304557e-05</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.551190806188312e-05</v>
+        <v>1.552277843255323e-05</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.540090853403783e-05</v>
+        <v>1.541491690740314e-05</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.53011611909837e-05</v>
+        <v>1.531797794704728e-05</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.521428284294466e-05</v>
+        <v>1.523354724352747e-05</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.514189030014441e-05</v>
+        <v>1.516321048888531e-05</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.50856003728069e-05</v>
+        <v>1.510855337516261e-05</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.504702987115602e-05</v>
+        <v>1.507116159440116e-05</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.502779560541555e-05</v>
+        <v>1.505262083864263e-05</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.502951438580939e-05</v>
+        <v>1.505451679992878e-05</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.50538030225614e-05</v>
+        <v>1.507843517030139e-05</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.510227829613599e-05</v>
+        <v>1.512596161254941e-05</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.517570286735814e-05</v>
+        <v>1.519784221199651e-05</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.527175161892762e-05</v>
+        <v>1.529178784810977e-05</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.538740189490744e-05</v>
+        <v>1.540482373795773e-05</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.55196310393602e-05</v>
+        <v>1.553397509860851e-05</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.566541639634896e-05</v>
+        <v>1.567626714713072e-05</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.58217353099364e-05</v>
+        <v>1.582872510059256e-05</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.598556512418521e-05</v>
+        <v>1.598837417606227e-05</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.615388318315848e-05</v>
+        <v>1.615223959060845e-05</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.632366683091888e-05</v>
+        <v>1.631734656129932e-05</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.649189341152909e-05</v>
+        <v>1.648072030520308e-05</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.665554026905221e-05</v>
+        <v>1.663938603938836e-05</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.681158474755089e-05</v>
+        <v>1.679036898092337e-05</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.695700419108785e-05</v>
+        <v>1.693069434687633e-05</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.708877594372614e-05</v>
+        <v>1.705738735431583e-05</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.720387734952835e-05</v>
+        <v>1.716747322031001e-05</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.72992857525575e-05</v>
+        <v>1.725797716192741e-05</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.737197849687629e-05</v>
+        <v>1.732592439623625e-05</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.741912664206879e-05</v>
+        <v>1.736853455077666e-05</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.744130223745032e-05</v>
+        <v>1.738644044380143e-05</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.744197881915454e-05</v>
+        <v>1.738318678940672e-05</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.742472294743487e-05</v>
+        <v>1.736241165953051e-05</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.739310118254466e-05</v>
+        <v>1.732775312611078e-05</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.735068008473729e-05</v>
+        <v>1.728284926108552e-05</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.730102621426622e-05</v>
+        <v>1.723133813639276e-05</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.724770613138473e-05</v>
+        <v>1.71768578239704e-05</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.719428639634631e-05</v>
+        <v>1.712304639575651e-05</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.714433356940424e-05</v>
+        <v>1.707354192368899e-05</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.710141421081196e-05</v>
+        <v>1.703198247970587e-05</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.706909488082288e-05</v>
+        <v>1.700200613574516e-05</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.705094213969033e-05</v>
+        <v>1.698725096374479e-05</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.705052254766773e-05</v>
+        <v>1.699135503564279e-05</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.707138508339733e-05</v>
+        <v>1.701793767583527e-05</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.711406064508679e-05</v>
+        <v>1.706739998322064e-05</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.717266524963974e-05</v>
+        <v>1.713330277028825e-05</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.724049429788989e-05</v>
+        <v>1.720833181401495e-05</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.731084319067115e-05</v>
+        <v>1.728517289137777e-05</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.73770073288172e-05</v>
+        <v>1.73565117793535e-05</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.743228211316194e-05</v>
+        <v>1.741503425491916e-05</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.746996294453909e-05</v>
+        <v>1.745342609505159e-05</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.748334522378244e-05</v>
+        <v>1.746437307672769e-05</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.746608648287437e-05</v>
+        <v>1.744096529754752e-05</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.742324535516171e-05</v>
+        <v>1.738902222243081e-05</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.737330533287265e-05</v>
+        <v>1.732935221556705e-05</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.733552018148183e-05</v>
+        <v>1.728362365376876e-05</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.7329143666464e-05</v>
+        <v>1.727350491384866e-05</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.737342955329383e-05</v>
+        <v>1.73206643726193e-05</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.74876316074461e-05</v>
+        <v>1.744677040689343e-05</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.768862311688504e-05</v>
+        <v>1.767084713012518e-05</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.795304914979994e-05</v>
+        <v>1.796723266018161e-05</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.822404617622882e-05</v>
+        <v>1.827304335673391e-05</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.844372820131385e-05</v>
+        <v>1.852425981301661e-05</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.855420923019735e-05</v>
+        <v>1.865686262226444e-05</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.851522572091348e-05</v>
+        <v>1.862600744396962e-05</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.836536430906989e-05</v>
+        <v>1.847264715261264e-05</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.816525635682425e-05</v>
+        <v>1.826172158378654e-05</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.797553425392375e-05</v>
+        <v>1.805817169120895e-05</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.784650760228019e-05</v>
+        <v>1.791596001131263e-05</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.778246645238789e-05</v>
+        <v>1.784010669725392e-05</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.777488156277132e-05</v>
+        <v>1.782199842073189e-05</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.781522314911101e-05</v>
+        <v>1.785302127612418e-05</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>1.789496142708763e-05</v>
+        <v>1.792456135780849e-05</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>1.800556661238176e-05</v>
+        <v>1.802800476016248e-05</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>1.813850892067384e-05</v>
+        <v>1.815473757756367e-05</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>1.828525856764473e-05</v>
+        <v>1.829614590438998e-05</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>1.843728576897476e-05</v>
+        <v>1.844361583501882e-05</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>1.858606074034479e-05</v>
+        <v>1.858853346382811e-05</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>1.872305369743529e-05</v>
+        <v>1.872228488519539e-05</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.883973485592684e-05</v>
+        <v>1.883625619349832e-05</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.892757443149996e-05</v>
+        <v>1.892183348311449e-05</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.897836632857182e-05</v>
+        <v>1.897073008119214e-05</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.899172091805561e-05</v>
+        <v>1.898256136304731e-05</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.897527724606538e-05</v>
+        <v>1.896505928431944e-05</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.893704049873927e-05</v>
+        <v>1.892632594950079e-05</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.888501586221552e-05</v>
+        <v>1.887446346308373e-05</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.882720852263221e-05</v>
+        <v>1.881757392956045e-05</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.877162366612757e-05</v>
+        <v>1.876375945342329e-05</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.872626647883982e-05</v>
+        <v>1.872112213916461e-05</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.869914214690704e-05</v>
+        <v>1.869776409127659e-05</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.869825585646746e-05</v>
+        <v>1.870178741425162e-05</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.873161279365923e-05</v>
+        <v>1.874129421258192e-05</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.880721814462059e-05</v>
+        <v>1.882438659075986e-05</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.893307709548955e-05</v>
+        <v>1.895916665327759e-05</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.911564671194351e-05</v>
+        <v>1.915205768458393e-05</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.935261399491482e-05</v>
+        <v>1.939997249442671e-05</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.963858126511304e-05</v>
+        <v>1.969647878917396e-05</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.996814743407157e-05</v>
+        <v>2.003514057819892e-05</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>2.03359114133231e-05</v>
+        <v>2.040952187087407e-05</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>2.073647211440013e-05</v>
+        <v>2.081318667657171e-05</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>2.11644284488363e-05</v>
+        <v>2.123969900466532e-05</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>2.161437932816417e-05</v>
+        <v>2.168262286452722e-05</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>2.208092406748482e-05</v>
+        <v>2.213552268490272e-05</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>2.263151422798916e-05</v>
+        <v>2.266766815103389e-05</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.360968692377766e-05</v>
+        <v>2.363522645263134e-05</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.542091921603717e-05</v>
+        <v>2.545870711741953e-05</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>2.824771130684137e-05</v>
+        <v>2.832540631020775e-05</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>3.19174357129545e-05</v>
+        <v>3.205118917787476e-05</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>3.622577670748219e-05</v>
+        <v>3.641877786807525e-05</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>4.096841856352031e-05</v>
+        <v>4.121089452845402e-05</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>4.594104555416326e-05</v>
+        <v>4.621026130665437e-05</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>5.093838093085947e-05</v>
+        <v>5.119882990111282e-05</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>5.569387352979153e-05</v>
+        <v>5.590942842911615e-05</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>5.984385890382069e-05</v>
+        <v>5.999702947505097e-05</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>6.30160638035715e-05</v>
+        <v>6.310970396307109e-05</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>6.483821497965572e-05</v>
+        <v>6.489552281731769e-05</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>6.499817405044509e-05</v>
+        <v>6.506034724907732e-05</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>6.376763253610835e-05</v>
+        <v>6.3871105599665e-05</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>6.174658815427259e-05</v>
+        <v>6.191023217439606e-05</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>5.953869729004523e-05</v>
+        <v>5.976367729935931e-05</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>5.77476163285274e-05</v>
+        <v>5.801739130063749e-05</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>5.692072162736071e-05</v>
+        <v>5.720252345104858e-05</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>5.697229546767896e-05</v>
+        <v>5.723376592887133e-05</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>5.741800104001207e-05</v>
+        <v>5.763766707161916e-05</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>5.77672858256052e-05</v>
+        <v>5.793472284919011e-05</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>5.752959730570469e-05</v>
+        <v>5.764542923148323e-05</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>5.622160052408001e-05</v>
+        <v>5.62973759264642e-05</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>5.369097924135692e-05</v>
+        <v>5.374349240396027e-05</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>5.024711361117113e-05</v>
+        <v>5.029048366643514e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>4.623364731366104e-05</v>
+        <v>4.627873041801326e-05</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>4.199422402896709e-05</v>
+        <v>4.204861336282112e-05</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>3.787248743721799e-05</v>
+        <v>3.794051320497349e-05</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>3.421208121855715e-05</v>
+        <v>3.429481064859981e-05</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>3.135127278205405e-05</v>
+        <v>3.144655635889352e-05</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>2.944062691774172e-05</v>
+        <v>2.954471249210286e-05</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>2.839852903095441e-05</v>
+        <v>2.850805839867277e-05</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>2.812896661547029e-05</v>
+        <v>2.824109932937312e-05</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>2.853592716507059e-05</v>
+        <v>2.864834053497683e-05</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>2.952339817353417e-05</v>
+        <v>2.963428726625444e-05</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>3.099536713464282e-05</v>
+        <v>3.110344477397943e-05</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>3.285582154217585e-05</v>
+        <v>3.296031830892281e-05</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>3.500874888991119e-05</v>
+        <v>3.510941312185418e-05</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>3.735813667163271e-05</v>
+        <v>3.745523446354911e-05</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>3.980797238111636e-05</v>
+        <v>3.990228758477525e-05</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>4.226224351214653e-05</v>
+        <v>4.235507773630865e-05</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>4.462493755850103e-05</v>
+        <v>4.471811016891884e-05</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>4.680107676042285e-05</v>
+        <v>4.689690216668467e-05</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>4.872375189392734e-05</v>
+        <v>4.882442343232264e-05</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>5.035672140693629e-05</v>
+        <v>5.046363817109996e-05</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>5.166529959942208e-05</v>
+        <v>5.177903228867371e-05</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>5.261480077136232e-05</v>
+        <v>5.27350916907062e-05</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>5.317053922273095e-05</v>
+        <v>5.329630228285603e-05</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>5.329782925350332e-05</v>
+        <v>5.342714997078324e-05</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>5.296198516365491e-05</v>
+        <v>5.309212066014804e-05</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>5.212837557168075e-05</v>
+        <v>5.225575505176558e-05</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>5.080555555863712e-05</v>
+        <v>5.092615926263382e-05</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>4.912286273929509e-05</v>
+        <v>4.923328178897852e-05</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>4.72305883715705e-05</v>
+        <v>4.732820863470743e-05</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>4.527902371337994e-05</v>
+        <v>4.536202580372904e-05</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>4.341846002263463e-05</v>
+        <v>4.348581929994646e-05</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>4.179918855725246e-05</v>
+        <v>4.185067512726952e-05</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>4.057150057514527e-05</v>
+        <v>4.060767928960191e-05</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>3.988568733422948e-05</v>
+        <v>3.990791779085198e-05</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>3.989204009241957e-05</v>
+        <v>3.990247663492613e-05</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>4.074085010763031e-05</v>
+        <v>4.0742441825731e-05</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>4.258240863777685e-05</v>
+        <v>4.257889936717366e-05</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>4.55670069407708e-05</v>
+        <v>4.556293526315763e-05</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>4.984493627453228e-05</v>
+        <v>4.984563551759491e-05</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>5.553821387758691e-05</v>
+        <v>5.554968169116473e-05</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>6.241506181521175e-05</v>
+        <v>6.244232816688258e-05</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>7.000292920155162e-05</v>
+        <v>7.004894572688567e-05</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>7.782465043730495e-05</v>
+        <v>7.78902691528794e-05</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>8.540305992319735e-05</v>
+        <v>8.548703322659647e-05</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>9.226099205993302e-05</v>
+        <v>9.235997272974804e-05</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>9.791609167336421e-05</v>
+        <v>9.802490007129413e-05</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>0.0001018385627416994</v>
+        <v>0.000101952629458531</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>0.0001034731843837281</v>
+        <v>0.0001035898593207218</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>0.0001082112581442223</v>
+        <v>0.0001083377921134453</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>0.0001295221438535704</v>
+        <v>0.0001296844063701778</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>0.000157665470892265</v>
+        <v>0.0001578734490668884</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>0.0001803006169256388</v>
+        <v>0.000180544646385763</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>0.0001863150670481758</v>
+        <v>0.0001865678322810326</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>0.0001775423748778943</v>
+        <v>0.0001777799958028254</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>0.0001635770925361598</v>
+        <v>0.0001637917656285418</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>0.0001540371883244895</v>
+        <v>0.0001542372175220644</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>0.0001524018719534672</v>
+        <v>0.0001526011268699526</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>0.0001520949584172203</v>
+        <v>0.0001522956071502869</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>0.0001497759625874127</v>
+        <v>0.0001499740358076747</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>0.0001456641024557698</v>
+        <v>0.0001458556127037432</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>0.0001400900812767676</v>
+        <v>0.0001402712146112762</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>0.0001333846023048926</v>
+        <v>0.000133551718303068</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>0.0001258783687946355</v>
+        <v>0.000126028000551917</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>0.0001179020840004659</v>
+        <v>0.0001180309381306009</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>0.0001097756140334086</v>
+        <v>0.0001098806318239963</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>0.0001016633908084354</v>
+        <v>0.000101742625358235</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>9.361353986817431e-05</v>
+        <v>9.366681242053058e-05</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>8.567138205930815e-05</v>
+        <v>8.570029782945027e-05</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>7.788223822851954e-05</v>
+        <v>7.789018640356092e-05</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>7.029142922246997e-05</v>
+        <v>7.028358296140843e-05</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>6.294427588784866e-05</v>
+        <v>6.292759232156631e-05</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>5.588609907131789e-05</v>
+        <v>5.586931930258119e-05</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>4.916236034308256e-05</v>
+        <v>4.915600131464032e-05</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>4.285842299900293e-05</v>
+        <v>4.287247171756721e-05</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>3.715421772194916e-05</v>
+        <v>3.719266655185511e-05</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>3.224337614259337e-05</v>
+        <v>3.230343107771418e-05</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>2.831952989160481e-05</v>
+        <v>2.839161055535174e-05</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.556301655760783e-05</v>
+        <v>2.56311757305487e-05</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>2.393072602887991e-05</v>
+        <v>2.397970111445072e-05</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>2.319406004223797e-05</v>
+        <v>2.32151266214576e-05</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>2.311880079739183e-05</v>
+        <v>2.310994996777914e-05</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>2.347073049405309e-05</v>
+        <v>2.343666886962697e-05</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>2.401563133193355e-05</v>
+        <v>2.396778104321287e-05</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>2.451928551074404e-05</v>
+        <v>2.44757842047477e-05</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>2.476888977901315e-05</v>
+        <v>2.475340143682623e-05</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>2.476980772971572e-05</v>
+        <v>2.479940753012799e-05</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>2.465479818958019e-05</v>
+        <v>2.473289805818735e-05</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>2.455821643104916e-05</v>
+        <v>2.467447638719667e-05</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>2.461441772656492e-05</v>
+        <v>2.474474588334809e-05</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>2.495705153602156e-05</v>
+        <v>2.506369176888248e-05</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>2.561136534842764e-05</v>
+        <v>2.565636184566073e-05</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>2.637840660505788e-05</v>
+        <v>2.63514516351648e-05</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>2.704158847343938e-05</v>
+        <v>2.696203478971357e-05</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>2.752504038962958e-05</v>
+        <v>2.742195379792941e-05</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>2.785584252065441e-05</v>
+        <v>2.77534079539802e-05</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>2.806343069655014e-05</v>
+        <v>2.798061828472659e-05</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>2.8177240747353e-05</v>
+        <v>2.812780581702912e-05</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>2.822670850309946e-05</v>
+        <v>2.821919157774868e-05</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>2.824126979382566e-05</v>
+        <v>2.827899659374569e-05</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>2.825020235258889e-05</v>
+        <v>2.833131289743557e-05</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>2.827209358979169e-05</v>
+        <v>2.839151007599947e-05</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>2.830822850421931e-05</v>
+        <v>2.846084033750617e-05</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.835831469431333e-05</v>
+        <v>2.85392688579532e-05</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>2.842205975851529e-05</v>
+        <v>2.862676081333794e-05</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>2.849917129526663e-05</v>
+        <v>2.872328137965767e-05</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>2.8589356903009e-05</v>
+        <v>2.882879573291e-05</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>2.869232418018389e-05</v>
+        <v>2.894326904909224e-05</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>2.880778072523273e-05</v>
+        <v>2.90666665042017e-05</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>2.893543413659724e-05</v>
+        <v>2.9198953274236e-05</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>2.907499201271873e-05</v>
+        <v>2.934009453519231e-05</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>2.922616195203898e-05</v>
+        <v>2.949005546306831e-05</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>2.938865155299941e-05</v>
+        <v>2.964880123386127e-05</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>2.956216841404137e-05</v>
+        <v>2.981629702356844e-05</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>2.974642013360673e-05</v>
+        <v>2.999250800818755e-05</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>2.994111431013685e-05</v>
+        <v>3.017739936371585e-05</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>3.014595854207307e-05</v>
+        <v>3.037093626615057e-05</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>3.036066042785731e-05</v>
+        <v>3.057308389148947e-05</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>3.05849275659309e-05</v>
+        <v>3.078380741572979e-05</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>3.081846755473518e-05</v>
+        <v>3.100307201486874e-05</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>3.106098799271207e-05</v>
+        <v>3.123084286490412e-05</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.13121964783027e-05</v>
+        <v>3.146708514183293e-05</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.157180060994903e-05</v>
+        <v>3.171176402165301e-05</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>3.183950798609238e-05</v>
+        <v>3.196484468036157e-05</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>3.211502620517428e-05</v>
+        <v>3.222629229395599e-05</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>3.239806286563599e-05</v>
+        <v>3.249607203843346e-05</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>3.268832556591958e-05</v>
+        <v>3.277414908979186e-05</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>3.298577631770096e-05</v>
+        <v>3.306070667056965e-05</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>3.329179398170335e-05</v>
+        <v>3.33571423231294e-05</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>3.360824774821984e-05</v>
+        <v>3.366527383002654e-05</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>3.393700728135756e-05</v>
+        <v>3.398691937990189e-05</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>3.427994224522455e-05</v>
+        <v>3.432389716139723e-05</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.463892230392792e-05</v>
+        <v>3.46780253631534e-05</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.501581712157481e-05</v>
+        <v>3.505112217381124e-05</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.54124963622733e-05</v>
+        <v>3.544500578201257e-05</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.583082969013053e-05</v>
+        <v>3.586149437639823e-05</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.627268676925349e-05</v>
+        <v>3.630240614560895e-05</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.673993726375045e-05</v>
+        <v>3.676955927828671e-05</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>3.723445083772797e-05</v>
+        <v>3.72647719630718e-05</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>3.77580971552944e-05</v>
+        <v>3.778986238860628e-05</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>3.831274588055674e-05</v>
+        <v>3.834664874353087e-05</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>3.890026667762187e-05</v>
+        <v>3.89369492164862e-05</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>3.952252921059831e-05</v>
+        <v>3.956258199611447e-05</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>4.018140314359296e-05</v>
+        <v>4.022536527105633e-05</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>4.087875814071263e-05</v>
+        <v>4.09271172299523e-05</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>4.161646386606599e-05</v>
+        <v>4.166965606144477e-05</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>4.23963899837599e-05</v>
+        <v>4.245479995417432e-05</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>4.322040615790102e-05</v>
+        <v>4.328436709678135e-05</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>4.409038205259828e-05</v>
+        <v>4.416017567790846e-05</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>4.500818733195751e-05</v>
+        <v>4.508404388619527e-05</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>4.597569166008784e-05</v>
+        <v>4.605778991028459e-05</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>4.699476470109589e-05</v>
+        <v>4.708323193881675e-05</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>4.806727611908811e-05</v>
+        <v>4.816218816043196e-05</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>4.919509557817386e-05</v>
+        <v>4.929647676377327e-05</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>5.038009274245966e-05</v>
+        <v>5.048791593748094e-05</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>5.162413727605176e-05</v>
+        <v>5.173832387019494e-05</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>5.292909884305988e-05</v>
+        <v>5.304951875055868e-05</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>5.429684710759034e-05</v>
+        <v>5.442331876721224e-05</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>5.572925173374926e-05</v>
+        <v>5.586154210879545e-05</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>5.722818238564667e-05</v>
+        <v>5.736600696395204e-05</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>5.879550872738729e-05</v>
+        <v>5.893853152132047e-05</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>6.043310042308139e-05</v>
+        <v>6.058093396954473e-05</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>6.214702104041586e-05</v>
+        <v>6.229922820433475e-05</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>6.396315057471728e-05</v>
+        <v>6.411925307062743e-05</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>6.591321627893609e-05</v>
+        <v>6.607269718545871e-05</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>6.802894625354275e-05</v>
+        <v>6.819125001374911e-05</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>7.034206859900031e-05</v>
+        <v>7.050660102041163e-05</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>7.288431141577992e-05</v>
+        <v>7.305043967036742e-05</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>7.568740280434653e-05</v>
+        <v>7.585445542853143e-05</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>7.878307086516414e-05</v>
+        <v>7.895033775981767e-05</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>8.220304369870531e-05</v>
+        <v>8.236977612914864e-05</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>8.597904940543434e-05</v>
+        <v>8.614446000143872e-05</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>9.014281608581423e-05</v>
+        <v>9.030607884160085e-05</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>9.472280564557292e-05</v>
+        <v>9.488305664022144e-05</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>9.968913783471838e-05</v>
+        <v>9.984548810040907e-05</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>0.0001049616234676946</v>
+        <v>0.0001051131700861026</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>0.0001104584248694398</v>
+        <v>0.0001106042513353341</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>0.0001160977043648728</v>
+        <v>0.0001162368805861165</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>0.0001217976242789325</v>
+        <v>0.0001219292065764829</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>0.0001274763469365425</v>
+        <v>0.0001275993780444507</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>0.0001330520346626265</v>
+        <v>0.0001331655437280377</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>0.0001384428497821232</v>
+        <v>0.0001385458523652767</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>0.0001435669546199562</v>
+        <v>0.0001436584526941853</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>0.00014834251150105</v>
+        <v>0.0001484214934527821</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>0.0001526876827503418</v>
+        <v>0.0001527531233790982</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>0.0001565206306927559</v>
+        <v>0.000156571491211152</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>0.0001597595176532184</v>
+        <v>0.0001597947456869635</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>0.0001623225059566635</v>
+        <v>0.0001623410355445613</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>0.0001641722719807241</v>
+        <v>0.0001641731610137262</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>0.0001654768633722796</v>
+        <v>0.0001654599276861228</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>0.0001664635155103699</v>
+        <v>0.0001664295116302472</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>0.0001673594692987363</v>
+        <v>0.0001673100944563545</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>0.0001683919656411222</v>
+        <v>0.0001683298577747024</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>0.0001697882454412691</v>
+        <v>0.0001697169831955462</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>0.0001717755496029167</v>
+        <v>0.00017169965232914</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>0.0001745811190298109</v>
+        <v>0.0001745060467857432</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>0.0001784320212068543</v>
+        <v>0.0001783641738575515</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>0.0001835016028184533</v>
+        <v>0.0001834480414800325</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>0.0001898337075271091</v>
+        <v>0.0001898014830601194</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>0.0001974530570236266</v>
+        <v>0.0001974491108806847</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>0.0002063843729988054</v>
+        <v>0.0002064155372245961</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>0.0002166523771434707</v>
+        <v>0.0002167253743747466</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>0.0002282817911484235</v>
+        <v>0.000228403234614005</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>0.0002412973367044603</v>
+        <v>0.0002414737302252357</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>0.0002557237355024131</v>
+        <v>0.0002559614734913386</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>0.0002715688785526514</v>
+        <v>0.0002718740410932446</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>0.0002886352798406276</v>
+        <v>0.0002890111321244086</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>0.0003065881854567484</v>
+        <v>0.0003070335064815982</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>0.0003250903296843401</v>
+        <v>0.0003255993816720596</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>0.0003438044468067789</v>
+        <v>0.0003443669752030895</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>0.0003623932711073914</v>
+        <v>0.0003629945045819342</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>0.0003805195368695045</v>
+        <v>0.000381140187315841</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>0.000397845978376494</v>
+        <v>0.0003984622409121057</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>0.0004140353299116864</v>
+        <v>0.0004146188828779747</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>0.0004287532347702935</v>
+        <v>0.0004292719944640987</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>0.0004417067494978112</v>
+        <v>0.0004421356146738428</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>0.0004526337628026344</v>
+        <v>0.0004529626139550497</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>0.0004612728982711993</v>
+        <v>0.0004615067882947657</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>0.0004673627794899118</v>
+        <v>0.0004675219336800069</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>0.0004706420300451862</v>
+        <v>0.0004707618460977983</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>0.0004708493272711813</v>
+        <v>0.0004709803696507897</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>0.0004678105544240147</v>
+        <v>0.0004680094162278802</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>0.0004616161369466078</v>
+        <v>0.0004619177190533739</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>0.0004524064749164582</v>
+        <v>0.0004528187492432478</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>0.0004403219684291099</v>
+        <v>0.0004408259779336454</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>0.0004255519226557661</v>
+        <v>0.0004261075309395587</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>0.0004084770703699388</v>
+        <v>0.0004090454671695587</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>0.0003895249754406633</v>
+        <v>0.0003900741824001417</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>0.0003691232017369102</v>
+        <v>0.0003696280724077397</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>0.0003476993131277004</v>
+        <v>0.000348141532968835</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>0.0003256808734820395</v>
+        <v>0.0003260489598598946</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>0.0003034954466689519</v>
+        <v>0.0003037847488574042</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>0.0002815705965574025</v>
+        <v>0.0002817832957377902</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>0.000260333887016435</v>
+        <v>0.0002604789962775576</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>0.0002401632915735269</v>
+        <v>0.0002402556626576582</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>0.0002211512372885313</v>
+        <v>0.0002212058413291805</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>0.0002032881555755812</v>
+        <v>0.0002033180402081173</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>0.0001865643505542533</v>
+        <v>0.0001865806373663001</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>0.0001709701263441729</v>
+        <v>0.0001709820108756092</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>0.0001564957870649613</v>
+        <v>0.0001565105388079207</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>0.0001431316368362012</v>
+        <v>0.000143154599235072</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>0.0001308679797775148</v>
+        <v>0.0001309025702289404</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>0.0001196950301629782</v>
+        <v>0.0001197427463762112</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>0.0001095942909327564</v>
+        <v>0.0001096553276232664</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>0.0001005313990356551</v>
+        <v>0.0001006057711119578</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>9.247030732471494e-05</v>
+        <v>9.255796910904303e-05</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>8.537496865300129e-05</v>
+        <v>8.547581388130453e-05</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>7.920933587357618e-05</v>
+        <v>7.932319769552134e-05</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>7.39373618394854e-05</v>
+        <v>7.406401281845634e-05</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>6.952299940379171e-05</v>
+        <v>6.966215151688932e-05</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>6.593020141955492e-05</v>
+        <v>6.608150605759709e-05</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>6.312056245768764e-05</v>
+        <v>6.328358491592933e-05</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>6.099976066597033e-05</v>
+        <v>6.117337530226837e-05</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>5.941661053584977e-05</v>
+        <v>5.959838568270983e-05</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>5.821737881323474e-05</v>
+        <v>5.840354921912651e-05</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>5.724833224403918e-05</v>
+        <v>5.743379907339635e-05</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>5.635573757417299e-05</v>
+        <v>5.653406840739324e-05</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>5.538586154954866e-05</v>
+        <v>5.554929038299365e-05</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>5.418497091607888e-05</v>
+        <v>5.432439816207432e-05</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>5.259933241967317e-05</v>
+        <v>5.270432490650872e-05</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>5.057089632640695e-05</v>
+        <v>5.063235168782796e-05</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>4.845489013953376e-05</v>
+        <v>4.84765448730361e-05</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>4.67180961207801e-05</v>
+        <v>4.671963192531305e-05</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>4.581870261943499e-05</v>
+        <v>4.58353114325102e-05</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>4.566007393776609e-05</v>
+        <v>4.571437922229904e-05</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>4.540391947959998e-05</v>
+        <v>4.546919611954475e-05</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>4.503908025897378e-05</v>
+        <v>4.508593739685306e-05</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>4.491130136229814e-05</v>
+        <v>4.492764491751614e-05</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>4.536719087183944e-05</v>
+        <v>4.535827181015237e-05</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>4.673610770283326e-05</v>
+        <v>4.672391376620497e-05</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>4.894889106876846e-05</v>
+        <v>4.895809348015625e-05</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>5.153686412955915e-05</v>
+        <v>5.158072916260724e-05</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>5.401390160732408e-05</v>
+        <v>5.409367528918711e-05</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>5.58938782241905e-05</v>
+        <v>5.599878633553359e-05</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>5.669092992912356e-05</v>
+        <v>5.679818414706966e-05</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>5.619069409199508e-05</v>
+        <v>5.627187655198833e-05</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>5.496373270718207e-05</v>
+        <v>5.50032541009473e-05</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>5.372162608152609e-05</v>
+        <v>5.372004180965765e-05</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>5.314401127142622e-05</v>
+        <v>5.311736741208249e-05</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>5.331120512370548e-05</v>
+        <v>5.3278767477911e-05</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>5.377096973364715e-05</v>
+        <v>5.374431987924545e-05</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>5.405253545855734e-05</v>
+        <v>5.403519131679025e-05</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>5.377819438720598e-05</v>
+        <v>5.376733557245331e-05</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>5.296418595209044e-05</v>
+        <v>5.295795749313388e-05</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>5.173097408972258e-05</v>
+        <v>5.173041873551782e-05</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>5.019902340005483e-05</v>
+        <v>5.020808163203167e-05</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>4.848879848304071e-05</v>
+        <v>4.851430851510297e-05</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>4.672075923060804e-05</v>
+        <v>4.677245636867755e-05</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>4.499848473083496e-05</v>
+        <v>4.50867049911384e-05</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>4.337074427767181e-05</v>
+        <v>4.349896833132844e-05</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>4.187520256349257e-05</v>
+        <v>4.203854512101274e-05</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>4.054952428067571e-05</v>
+        <v>4.073473409196078e-05</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>3.94313741215991e-05</v>
+        <v>3.961683397594144e-05</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>3.855841677863764e-05</v>
+        <v>3.871414350472065e-05</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>3.796831530804487e-05</v>
+        <v>3.805596028823681e-05</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>3.762244477621095e-05</v>
+        <v>3.761926671451942e-05</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>3.730545391841186e-05</v>
+        <v>3.725707139789924e-05</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>3.699889473426378e-05</v>
+        <v>3.695038443437238e-05</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.672456913971792e-05</v>
+        <v>3.670673482587592e-05</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.650427905072476e-05</v>
+        <v>3.653365157434634e-05</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.635982638323565e-05</v>
+        <v>3.643866368172089e-05</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>3.630805785676055e-05</v>
+        <v>3.642651770827985e-05</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>3.634232658656632e-05</v>
+        <v>3.648876808682949e-05</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>3.64490300532913e-05</v>
+        <v>3.661306352256891e-05</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>3.661456466981634e-05</v>
+        <v>3.67870521211302e-05</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>3.682532684902203e-05</v>
+        <v>3.69983819881452e-05</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>3.706771300378879e-05</v>
+        <v>3.723470122924556e-05</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>3.732811954699772e-05</v>
+        <v>3.748365795006363e-05</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>3.759294289152929e-05</v>
+        <v>3.773290025623109e-05</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>3.784857945026391e-05</v>
+        <v>3.797007625337963e-05</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>3.80814256360827e-05</v>
+        <v>3.818283404714161e-05</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>3.827787786186596e-05</v>
+        <v>3.835882174314853e-05</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>3.842436080349743e-05</v>
+        <v>3.848571377096991e-05</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>3.851273019836609e-05</v>
+        <v>3.855624300791638e-05</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>3.854669477962918e-05</v>
+        <v>3.85741821178324e-05</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>3.853152687258713e-05</v>
+        <v>3.854476008192077e-05</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>3.847249880254025e-05</v>
+        <v>3.847320588138426e-05</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>3.837488289478902e-05</v>
+        <v>3.836474849742584e-05</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>3.824395147463363e-05</v>
+        <v>3.822461691124808e-05</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>3.808497686737454e-05</v>
+        <v>3.805804010405388e-05</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>3.790323139831227e-05</v>
+        <v>3.787024705704622e-05</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>3.770398739274689e-05</v>
+        <v>3.766646675142759e-05</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>3.749251717597913e-05</v>
+        <v>3.745192816840116e-05</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>3.727409307330894e-05</v>
+        <v>3.723186028916933e-05</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>3.705398741003691e-05</v>
+        <v>3.701149209493511e-05</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>3.68374725114636e-05</v>
+        <v>3.679605256690151e-05</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>3.662982070288898e-05</v>
+        <v>3.659077068627091e-05</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>3.643630430961364e-05</v>
+        <v>3.640087543424637e-05</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>3.626219565693807e-05</v>
+        <v>3.62315957920308e-05</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>3.611276707016238e-05</v>
+        <v>3.608816074082675e-05</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>3.599329087458704e-05</v>
+        <v>3.597579926183713e-05</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>3.590888448224139e-05</v>
+        <v>3.589953012108972e-05</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>3.586395078026678e-05</v>
+        <v>3.586340248418139e-05</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>3.586268678404365e-05</v>
+        <v>3.587118615156513e-05</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>3.590928948983662e-05</v>
+        <v>3.592665089775399e-05</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>3.600795589391031e-05</v>
+        <v>3.603356649726103e-05</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>3.616288299252926e-05</v>
+        <v>3.619570272459927e-05</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>3.637826778195787e-05</v>
+        <v>3.641682935428152e-05</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>3.665830725846112e-05</v>
+        <v>3.670071616082123e-05</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>3.700719841830306e-05</v>
+        <v>3.705113291873089e-05</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>3.742913825774893e-05</v>
+        <v>3.747184940252418e-05</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>3.792832377306303e-05</v>
+        <v>3.796663538671386e-05</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>3.850895196050938e-05</v>
+        <v>3.85392606458124e-05</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>3.917521981635362e-05</v>
+        <v>3.919349495433387e-05</v>
       </c>
     </row>
   </sheetData>
